--- a/data/landings/cdfw/public/fish_bulletins/raw/fb144/raw/Table20.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb144/raw/Table20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb144/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CABC1A-2DD1-2540-BA76-0D819702D1E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD11DEC-15AC-1643-BE8E-98501F68BAC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22480" yWindow="780" windowWidth="19540" windowHeight="26060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,12 +569,12 @@
   <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -1964,13 +1964,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D85" s="2">
         <v>46986738</v>
